--- a/Data Structure/DataStrucuture.xlsx
+++ b/Data Structure/DataStrucuture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamrathod/Documents/Study Material/DS/DataStructure-And-Algorithm/Data Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07C5F77-18AF-EF45-897B-24F2B010999A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A8C8BC-C449-2844-A576-3E871CE21FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4E42177B-4881-CA45-8674-08098C02AC7A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Number</t>
   </si>
@@ -368,6 +368,35 @@
       <t xml:space="preserve"> .
 2 pointers pointing at position m and n.
 3rd pointer pointing at position (m + n ) of the first array.</t>
+    </r>
+  </si>
+  <si>
+    <t>Convert Sored Array to Binary Search Tree</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Recursion Technique.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Approach:
+ -- First perform binary search (ie find the mid)
+ -- Make this mid as root node.
+ -- Repeat the process on left sub tree and right sub tree.</t>
     </r>
   </si>
 </sst>
@@ -466,6 +495,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -477,18 +518,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -804,11 +833,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4A21D9-BFC5-D744-9210-5766C92121CA}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -819,28 +848,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -897,14 +926,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="11" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" s="7" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>5</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -919,14 +948,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="2" customFormat="1" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -950,6 +979,17 @@
       </c>
       <c r="C14" s="3" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="2" customFormat="1" ht="142" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Data Structure/DataStrucuture.xlsx
+++ b/Data Structure/DataStrucuture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamrathod/Documents/Study Material/DS/DataStructure-And-Algorithm/Data Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A8C8BC-C449-2844-A576-3E871CE21FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5375223C-86B0-204F-B2CB-87CAFBCF0FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4E42177B-4881-CA45-8674-08098C02AC7A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Number</t>
   </si>
@@ -399,12 +399,388 @@
  -- Repeat the process on left sub tree and right sub tree.</t>
     </r>
   </si>
+  <si>
+    <t>Pascal's Triangle.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Append</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Element to a list.
+Proper use of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2 for loop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.
+Approach:
+ -- Add 0 to the front and back of existing list.
+ -- loop through this array and add j and j+1 elements.
+ -- append result into original array</t>
+    </r>
+  </si>
+  <si>
+    <t>Best Time To Buy and Sell Stock.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sliding Window Concept.
+2 Pointer Approach.
+</t>
+  </si>
+  <si>
+    <t>Best Time To Buy and Sell Stock II.</t>
+  </si>
+  <si>
+    <r>
+      <t>Sliding Window Concept.
+Simple for loop --</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> comparison of i and i-1 index</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Single Number.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>XOR manipulation.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Approach:
+    XOR:
+  -- When then number is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>unique</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. -- XOR </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>adds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the numbers.
+ -- When the number is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>not unique</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ( ie., It has the number previously )., Then it will </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>subtract</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the numbers.</t>
+    </r>
+  </si>
+  <si>
+    <t>Single Number - II.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Brute Force:
+    Count the number of occurance of element in a list using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Counter. ( collections.Counter )
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Return the element whose count = 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bit Wise Manipulation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">:
+    1. Perform </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>XOR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> operation between </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>i and ones variable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+    2. perform </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> operation with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>result from above step and negation/complement of twos variable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.
+    3.  Perform XOR operation between</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> i and twos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> variable.
+    4. perform AND operation with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>result from above step and negation/complement of ones variable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+https://www.youtube.com/watch?v=cOFAmaMBVps
+Approach 3: Use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Dictionary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> to keep track of unique elements</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -450,8 +826,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,6 +853,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -483,7 +890,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -518,6 +925,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -833,11 +1264,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4A21D9-BFC5-D744-9210-5766C92121CA}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <pane ySplit="5" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -992,6 +1423,61 @@
         <v>24</v>
       </c>
     </row>
+    <row r="16" spans="1:3" s="2" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="15" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15">
+        <v>12</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="13" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
+        <v>13</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="17" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="17">
+        <v>14</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="19" customFormat="1" ht="282" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="19">
+        <v>15</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C3"/>

--- a/Data Structure/DataStrucuture.xlsx
+++ b/Data Structure/DataStrucuture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamrathod/Documents/Study Material/DS/DataStructure-And-Algorithm/Data Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5375223C-86B0-204F-B2CB-87CAFBCF0FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE7A8A8-4F5C-6343-89EA-84A876BD7074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4E42177B-4881-CA45-8674-08098C02AC7A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Number</t>
   </si>
@@ -773,6 +773,161 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve"> to keep track of unique elements</t>
+    </r>
+  </si>
+  <si>
+    <t>Missing Range</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2 Pointer Approach.
+String type conversion.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+# Things to keep in mind:
+    1. Lower and Upper value will always be present.
+    2. Nums may or may not be present.
+# Walk Through:
+    1. Always include lower and upper in the loop.
+  Lower + nums + upper. 
+  eh = lower = -1.    +    nums[i] = [ 1, 3, 5, 9].   +.  upper =  15
+To find range we perform:
+    nums[i] = [ 1, 3, 5, 9]
+    Range:
+    3-1. --&gt;. 1+1 = 2
+    5-1. --&gt;. 3+1 = 4
+    9-1. --&gt;. 5+1 = 6-8
+But for lower and upper we have to include the lower and upper value ot get the range:
+    lower = -1.    +    nums[i] = [ 1, 3, 5, 9].   +.  upper =  15
+    Range :
+    lower = -1 --&gt; 0 # here if i do lower -1 ill get 0 which is not right. so to negate this only for lower i add 1. lower - 1 + 1
+    3-1. --&gt;. 1+1 = 2
+    5-1. --&gt;. 3+1 = 4
+    9-1. --&gt;. 5+1 = 6-8
+    upper = 15 --&gt; 9+1 = 10 # here i need to include upper. If i do upper -1 ill get 14 which is not right. So i negate -1 by adding + 1 = upper -1 +1
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Majority Elements</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Brute Force approach
+1. Use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>dictionary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> to count the number of time the element occurred and check if it is greater than majority.
+2. use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Counter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> to count the number of time the element occurred and check if it is greater than majority.
+# </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Boyer - Moore Voting Algorithm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>. 
+if there are equal number of element than each number will negate the other number and count will be zero
+eg: 1,1,1,2,2,2 = 0 -- because 3 one and 3 twos will negate one other
+if one number is more than other -- then larger number will defeate the smaller number count
+eg 1,1,2,2,2
+then 2 one and 2 twos will negate one other. But there is still one more 2 remaining.
+Which says that 2 is our majority element</t>
+    </r>
+  </si>
+  <si>
+    <t>Missing Number</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Finding the missing number in given range. 
+Brute Force:
+    Searching In array:
+    Go through range and check if range is in array.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Gauss Formula</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+    len(range) + len(range + 1) // 2 ---&gt; will give the sum of elemens in the range
+Subtract the sum of element in range and sum of element in array --&gt; we will get the missing number.</t>
     </r>
   </si>
 </sst>
@@ -914,6 +1069,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -925,30 +1104,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1264,11 +1419,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4A21D9-BFC5-D744-9210-5766C92121CA}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1279,28 +1434,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1434,48 +1589,81 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="15" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15">
+    <row r="17" spans="1:3" s="11" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
         <v>12</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="13" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
+    <row r="18" spans="1:3" s="9" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
         <v>13</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="17" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="17">
+    <row r="19" spans="1:3" s="13" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
         <v>14</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="19" customFormat="1" ht="282" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19">
+    <row r="20" spans="1:3" s="15" customFormat="1" ht="282" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
         <v>15</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="16" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="3" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="2" customFormat="1" ht="329" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>17</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="2" customFormat="1" ht="194" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>18</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Data Structure/DataStrucuture.xlsx
+++ b/Data Structure/DataStrucuture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamrathod/Documents/Study Material/DS/DataStructure-And-Algorithm/Data Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE7A8A8-4F5C-6343-89EA-84A876BD7074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD553300-F9FE-3E4F-B90A-FAB18CD1D0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4E42177B-4881-CA45-8674-08098C02AC7A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Number</t>
   </si>
@@ -930,12 +930,170 @@
 Subtract the sum of element in range and sum of element in array --&gt; we will get the missing number.</t>
     </r>
   </si>
+  <si>
+    <t>Move Zeros</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Brute Force:
+    Sorting:
+    Sort and count number of zeros.
+    The slice the zero from front and attach it to the end.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2 Pointer:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+    when ever you encounter a zero -- swap it with a non zero element.</t>
+    </r>
+  </si>
+  <si>
+    <t>Intersection of Two Arrays II</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Sort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the array
+then use
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2 pointers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Intersection of Two Arrays I</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Solution 1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+Sort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the array
+then use
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2 pointers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+O(nlog n + m log m)
+Solution 2:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Set operation.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Loop through smaller array
+Then check if the element is present in larger array.
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -987,6 +1145,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF212121"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1045,7 +1210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1103,6 +1268,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1419,11 +1587,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4A21D9-BFC5-D744-9210-5766C92121CA}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1666,6 +1834,39 @@
         <v>40</v>
       </c>
     </row>
+    <row r="24" spans="1:3" s="2" customFormat="1" ht="169" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>19</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="2" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>20</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="2" customFormat="1" ht="212" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>21</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C3"/>

--- a/Data Structure/DataStrucuture.xlsx
+++ b/Data Structure/DataStrucuture.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamrathod/Documents/Study Material/DS/DataStructure-And-Algorithm/Data Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD553300-F9FE-3E4F-B90A-FAB18CD1D0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875CF9D2-A07F-C343-8E35-1439EB509D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4E42177B-4881-CA45-8674-08098C02AC7A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Array" sheetId="1" r:id="rId1"/>
+    <sheet name="Data Structure" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>Number</t>
   </si>
@@ -1088,12 +1088,61 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>SEARCHING ALGORITHM</t>
+  </si>
+  <si>
+    <t>1. Come Up with a Brute Force Approach
+2. Use RECURSION.</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2 Pointer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+   1. Calculate Mid
+   2. Check if mid is target.
+   3. If not move the left and right pointer accordingly and repeate step 1 2 3</t>
+    </r>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <t>Matrix Easy</t>
+  </si>
+  <si>
+    <t>Matrix Medium</t>
+  </si>
+  <si>
+    <t>Rotting Orange</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1153,8 +1202,43 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1197,6 +1281,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFE4451"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1210,7 +1300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1258,6 +1348,18 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1270,8 +1372,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1279,6 +1388,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFE4451"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1587,290 +1701,386 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4A21D9-BFC5-D744-9210-5766C92121CA}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="75.1640625" customWidth="1"/>
-    <col min="3" max="3" width="140.5" customWidth="1"/>
+    <col min="3" max="3" width="182.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:3" s="28" customFormat="1" ht="134" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-    </row>
-    <row r="3" spans="1:3" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-    </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+    </row>
+    <row r="4" spans="1:3" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+    </row>
+    <row r="5" spans="1:3" s="4" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" ht="223" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    <row r="7" spans="1:3" s="2" customFormat="1" ht="223" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="2" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+    <row r="8" spans="1:3" s="2" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="2" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row r="9" spans="1:3" s="2" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="2" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="10" spans="1:3" s="2" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="7" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+    <row r="11" spans="1:3" s="7" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+    <row r="12" spans="1:3" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+    <row r="13" spans="1:3" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>7</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="2" customFormat="1" ht="122" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+    <row r="14" spans="1:3" s="2" customFormat="1" ht="122" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="2" customFormat="1" ht="184" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+    <row r="15" spans="1:3" s="2" customFormat="1" ht="184" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>9</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="2" customFormat="1" ht="142" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+    <row r="16" spans="1:3" s="2" customFormat="1" ht="142" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>10</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="2" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+    <row r="17" spans="1:3" s="2" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>11</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="11" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
+    <row r="18" spans="1:3" s="11" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
         <v>12</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C18" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="9" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
+    <row r="19" spans="1:3" s="9" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
         <v>13</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="13" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
+    <row r="20" spans="1:3" s="13" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
         <v>14</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C20" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="15" customFormat="1" ht="282" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15">
+    <row r="21" spans="1:3" s="15" customFormat="1" ht="282" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
         <v>15</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B21" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C21" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="3" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+    <row r="22" spans="1:3" s="3" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="2" customFormat="1" ht="329" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+    <row r="23" spans="1:3" s="2" customFormat="1" ht="329" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>17</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="2" customFormat="1" ht="194" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+    <row r="24" spans="1:3" s="2" customFormat="1" ht="194" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <v>18</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="2" customFormat="1" ht="169" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+    <row r="25" spans="1:3" s="2" customFormat="1" ht="169" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>19</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="2" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+    <row r="26" spans="1:3" s="2" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>20</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B26" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="2" customFormat="1" ht="212" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+    <row r="27" spans="1:3" s="2" customFormat="1" ht="212" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
         <v>21</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B27" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>46</v>
       </c>
     </row>
+    <row r="29" spans="1:3" s="18" customFormat="1" ht="232" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+    </row>
+    <row r="30" spans="1:3" s="4" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+    </row>
+    <row r="31" spans="1:3" s="19" customFormat="1" ht="107" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="19">
+        <v>1</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="27" customFormat="1" ht="143" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+    </row>
+    <row r="37" spans="1:3" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+    </row>
+    <row r="38" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+    </row>
+    <row r="39" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A39" s="19">
+        <v>1</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+    </row>
+    <row r="43" spans="1:3" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+    </row>
+    <row r="44" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A44" s="19">
+        <v>1</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="A4:C4"/>
+  <mergeCells count="10">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A37:C37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Structure/DataStrucuture.xlsx
+++ b/Data Structure/DataStrucuture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamrathod/Documents/Study Material/DS/DataStructure-And-Algorithm/Data Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875CF9D2-A07F-C343-8E35-1439EB509D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EFE582-2F94-A948-845F-5BB539DA5834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4E42177B-4881-CA45-8674-08098C02AC7A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>Number</t>
   </si>
@@ -1089,9 +1089,6 @@
     </r>
   </si>
   <si>
-    <t>SEARCHING ALGORITHM</t>
-  </si>
-  <si>
     <t>1. Come Up with a Brute Force Approach
 2. Use RECURSION.</t>
   </si>
@@ -1136,6 +1133,17 @@
   </si>
   <si>
     <t>Rotting Orange</t>
+  </si>
+  <si>
+    <t>Array Medium</t>
+  </si>
+  <si>
+    <t>Jump game</t>
+  </si>
+  <si>
+    <t>Start from the back of array.
+Check if you can reach the target from target -1 position.
+If target = 0 then you can reach the end of array from beginning else no</t>
   </si>
 </sst>
 </file>
@@ -1360,27 +1368,27 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1703,8 +1711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4A21D9-BFC5-D744-9210-5766C92121CA}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:C43"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1714,29 +1722,29 @@
     <col min="3" max="3" width="182.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="28" customFormat="1" ht="134" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+    <row r="1" spans="1:3" s="22" customFormat="1" ht="134" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
     </row>
     <row r="4" spans="1:3" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
     </row>
     <row r="5" spans="1:3" s="4" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
@@ -1976,7 +1984,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="2" customFormat="1" ht="212" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" s="2" customFormat="1" ht="236" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>21</v>
       </c>
@@ -1987,48 +1995,69 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="18" customFormat="1" ht="232" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-    </row>
-    <row r="30" spans="1:3" s="4" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+    </row>
+    <row r="29" spans="1:3" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+    </row>
+    <row r="30" spans="1:3" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
     </row>
     <row r="31" spans="1:3" s="19" customFormat="1" ht="107" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19">
+      <c r="A31" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+    </row>
+    <row r="32" spans="1:3" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="20" t="s">
+      <c r="C32" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="2" customFormat="1" ht="124" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>55</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="21" customFormat="1" ht="143" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="25" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" s="27" customFormat="1" ht="143" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
     </row>
     <row r="37" spans="1:3" ht="160" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
+      <c r="A37" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
     </row>
     <row r="38" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -2038,22 +2067,22 @@
         <v>1</v>
       </c>
       <c r="B39" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="20" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="42" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
     </row>
     <row r="43" spans="1:3" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="24"/>
       <c r="C43" s="24"/>
@@ -2063,10 +2092,10 @@
         <v>1</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2078,9 +2107,9 @@
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
     <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A28:C30"/>
+    <mergeCell ref="A31:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Structure/DataStrucuture.xlsx
+++ b/Data Structure/DataStrucuture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamrathod/Documents/Study Material/DS/DataStructure-And-Algorithm/Data Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EFE582-2F94-A948-845F-5BB539DA5834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E31F521-6E76-B243-80DC-9D432DE6D634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4E42177B-4881-CA45-8674-08098C02AC7A}"/>
   </bookViews>
@@ -1712,7 +1712,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A28" sqref="A28:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data Structure/DataStrucuture.xlsx
+++ b/Data Structure/DataStrucuture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamrathod/Documents/Study Material/DS/DataStructure-And-Algorithm/Data Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E31F521-6E76-B243-80DC-9D432DE6D634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C5D85A-6060-0541-A173-AABD60B66746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4E42177B-4881-CA45-8674-08098C02AC7A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
   <si>
     <t>Number</t>
   </si>
@@ -1144,6 +1144,304 @@
     <t>Start from the back of array.
 Check if you can reach the target from target -1 position.
 If target = 0 then you can reach the end of array from beginning else no</t>
+  </si>
+  <si>
+    <t>Searching</t>
+  </si>
+  <si>
+    <t>1. Come Up with a Brute Force Approach
+2. Always check for base case.
+3. Mostly recursion is used.</t>
+  </si>
+  <si>
+    <t>Find Three Larger.</t>
+  </si>
+  <si>
+    <t>Approach:
+Append largest element to end of result.
+Keep shifting the smaller number from.
+Lesson:
+Careful with the OR condition. 
+Swapping in a efficient Way.</t>
+  </si>
+  <si>
+    <t>Search in Sorted matrix</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Binary Search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> on 2D Matrix.</t>
+    </r>
+  </si>
+  <si>
+    <t>Shifted Binary Search.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Binary Search.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Approach</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Check if elements from left to mid are sorted.
+Check if elements from Mid to right are sorted.</t>
+    </r>
+  </si>
+  <si>
+    <t>Search for Ranges.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Binary Search  using Flag Variable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Approach</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+Keep a Flag variable to Move left and right in an array.</t>
+    </r>
+  </si>
+  <si>
+    <t>Quick Select.
+Kth smallest integer.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Quick Sort + Binary Search.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Approach</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+Take the pivot element and place in its correct position.
+Check if this was integer to be returned.
+If not perform sorting on one part element by checkin if the kth smalles lies before the prev pivot or after the prev pivot.</t>
+    </r>
+  </si>
+  <si>
+    <t>Index Equals Value.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Binary Search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Find the First index which is equal to its value
+so when mid == index we have to check its previous element as well
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: 
+1. when </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>index &gt; value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+  0
+[-1]  --&gt; in this case all the element on left of the index will never match the index
+2. When </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>index &lt; value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ 4
+[5] --&gt; in this case all the element on right will never match the index
+3. When index </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>match the value but that is not the first index to match value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+  0.  1. 2
+[ 0 , 1, 2]
+this time our mid will be 1 and it matches the index. 
+But that is not the first one.
+So we got to check the previous indexes as well</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1308,7 +1606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1390,6 +1688,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1709,10 +2014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4A21D9-BFC5-D744-9210-5766C92121CA}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C30"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2098,8 +2403,122 @@
         <v>49</v>
       </c>
     </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+    </row>
+    <row r="52" spans="1:3" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+    </row>
+    <row r="53" spans="1:3" s="31" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+    </row>
+    <row r="54" spans="1:3" s="1" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="19" customFormat="1" ht="107" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="19">
+        <v>1</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="2" customFormat="1" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>2</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>3</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="118" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>4</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>5</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>6</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="200" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>7</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="A50:C52"/>
+    <mergeCell ref="A53:C53"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A36:C36"/>

--- a/Data Structure/DataStrucuture.xlsx
+++ b/Data Structure/DataStrucuture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamrathod/Documents/Study Material/DS/DataStructure-And-Algorithm/Data Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C5D85A-6060-0541-A173-AABD60B66746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF743AEA-0D02-7C4D-8B0A-37CB55081270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4E42177B-4881-CA45-8674-08098C02AC7A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
   <si>
     <t>Number</t>
   </si>
@@ -1442,6 +1442,443 @@
 But that is not the first one.
 So we got to check the previous indexes as well</t>
     </r>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>Bubble Sort</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Keep Shifting the largest number to the end.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2 For loops:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+  - One will act as a Counter.
+  - 2nd will be used for comparing and shifting the element.</t>
+    </r>
+  </si>
+  <si>
+    <t>Inseertion Sort</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Keep Shifting the smallest number to the front.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ -- For loop  --&gt; Acts as a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Counter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+ -- While Loop --&gt; Used for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>comaprison</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> of j element with j-1 element.</t>
+    </r>
+  </si>
+  <si>
+    <t>Selection Sort</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Look for the minimun element in an array.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+And swap that element with the first element.</t>
+    </r>
+  </si>
+  <si>
+    <t>Three Number Sort</t>
+  </si>
+  <si>
+    <t>First compare the array with first element.
+And put the first element in right place.
+Next compare the entire array with the last element.
+And put the element in right position.</t>
+  </si>
+  <si>
+    <t>QUICK SORT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Put the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>pivot</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> in its right place first.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Then sort the elements on the left and right.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Trick</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+To make the algorithm run faster. Sort the smallest sub array first</t>
+    </r>
+  </si>
+  <si>
+    <t>Radix Sort</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Start by sorting the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>digit place</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (unit, 10, 100 etc) of each element.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Approach</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">:
+ - Sort the unit place first.
+ - Sort the 10's place.
+ - Sort 100 and 1000 and so on.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Main Logic of Radix Sort:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+# count the number of time each digit appeared in digit place(unit, 10, 100 etc)
+	for num in array:
+		idx = (num // digitPlace) % 10 #extract the digit 
+		# go to that idx and increase count by one
+		countArray[idx] +=  1
+	# add the count in count array
+	for i in range(1,10):
+		countArray[i] += countArray[i-1]
+         # Add elements to sorted array at its right place
+	for i in reversed(range(len(array))):
+		idx = (array[i]//digitPlace) % 10
+		countArray[idx] -= 1
+		sortedIdx = countArray[idx]
+		sortedArray[sortedIdx] = array[i]</t>
+    </r>
+  </si>
+  <si>
+    <t>Merge Sort</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>keep Dividing the array into smaller and smaller sub array until there is only one element left in the array.
+The start sorting the array and merge them back together.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Approach One:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Divivde the array into left and right.
+Sort the array and then place the sorted array into it.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Approach Two</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">:
+Create a copy of main array.
+Then Divide the copy copy of array.
+Compary the element sof the copy array
+swap the elements in the main array.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Approach Three</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">:
+Inplace. --&gt; Most effecient one and logic can be used along with others as well.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>start = 0
+End = len(array)
+LeftArray = (start,mid,array)
+RightArray = (mid,end,array)</t>
+    </r>
+  </si>
+  <si>
+    <t>Count Inversion</t>
+  </si>
+  <si>
+    <t>We use approach 3 of mere sort:
+When ever a right array is getting swapped with left array. We subtract the position of right array to left array.
+Inversion = mid - i</t>
+  </si>
+  <si>
+    <t>Heap Sort</t>
+  </si>
+  <si>
+    <t>Build A Max Heap tree.
+Swap the first element with last element to place the largest element in its right position.
+The shift the number down to bring the second largest number on top of the heap and repeat these step untill all the number in array is sorted.</t>
   </si>
 </sst>
 </file>
@@ -1606,7 +2043,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1670,8 +2107,18 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1682,19 +2129,18 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2014,10 +2460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4A21D9-BFC5-D744-9210-5766C92121CA}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75:B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2028,35 +2474,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="22" customFormat="1" ht="134" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
     </row>
     <row r="4" spans="1:3" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
     </row>
     <row r="5" spans="1:3" s="4" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -2301,28 +2747,28 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
     </row>
     <row r="29" spans="1:3" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
     </row>
     <row r="30" spans="1:3" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
     </row>
     <row r="31" spans="1:3" s="19" customFormat="1" ht="107" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
     </row>
     <row r="32" spans="1:3" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
@@ -2347,25 +2793,25 @@
       </c>
     </row>
     <row r="36" spans="1:3" s="21" customFormat="1" ht="143" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
     </row>
     <row r="37" spans="1:3" ht="160" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
     </row>
     <row r="38" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
     </row>
     <row r="39" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A39" s="19">
@@ -2379,18 +2825,18 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
     </row>
     <row r="43" spans="1:3" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
     </row>
     <row r="44" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A44" s="19">
@@ -2404,28 +2850,28 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
     </row>
     <row r="52" spans="1:3" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-    </row>
-    <row r="53" spans="1:3" s="31" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="23" t="s">
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+    </row>
+    <row r="53" spans="1:3" s="23" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
     </row>
     <row r="54" spans="1:3" s="1" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
@@ -2515,8 +2961,165 @@
         <v>71</v>
       </c>
     </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="25"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+    </row>
+    <row r="67" spans="1:3" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="25"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+    </row>
+    <row r="68" spans="1:3" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+    </row>
+    <row r="69" spans="1:3" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="19">
+        <v>1</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>2</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="92" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>3</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="124" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>4</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="127" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>5</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="33">
+        <v>6</v>
+      </c>
+      <c r="B75" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" s="34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="33"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="34"/>
+    </row>
+    <row r="77" spans="1:3" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="33">
+        <v>7</v>
+      </c>
+      <c r="B77" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" s="34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="33"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
+    </row>
+    <row r="79" spans="1:3" ht="175" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="33"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="33"/>
+    </row>
+    <row r="80" spans="1:3" ht="113" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>8</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="129" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>9</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="20">
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="A65:C67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
     <mergeCell ref="A50:C52"/>
     <mergeCell ref="A53:C53"/>
     <mergeCell ref="A38:C38"/>

--- a/Data Structure/DataStrucuture.xlsx
+++ b/Data Structure/DataStrucuture.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamrathod/Documents/Study Material/DS/DataStructure-And-Algorithm/Data Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF743AEA-0D02-7C4D-8B0A-37CB55081270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB7E1D5-7F09-374C-9595-C4427DE0297D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4E42177B-4881-CA45-8674-08098C02AC7A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16900" xr2:uid="{4E42177B-4881-CA45-8674-08098C02AC7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Structure" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="105">
   <si>
     <t>Number</t>
   </si>
@@ -1880,12 +1880,189 @@
 Swap the first element with last element to place the largest element in its right position.
 The shift the number down to bring the second largest number on top of the heap and repeat these step untill all the number in array is sorted.</t>
   </si>
+  <si>
+    <t>Sliding Window</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Come Up with a Brute Force Approach
+2. Always check for base case.
+3. Mostly </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="4"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>dictionary</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is used.</t>
+    </r>
+  </si>
+  <si>
+    <t>Best time to buy and sell stock I</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Check when we will get maximum profit  -- That is on which next day the stock price went the highest.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Left &lt; right:
+    calculate the profit -- check if that is the maximum profit.
+If at any time left &gt; right:
+    move the left to right --  because if we purchase when left is high and if we sell it when right is low then we will be at loss. 
+so buy on right -- move left to right</t>
+    </r>
+  </si>
+  <si>
+    <t>Best time to buy and sell stock II</t>
+  </si>
+  <si>
+    <t>Make a sum of profit we get each time when we buy the stock at low price and sell stock at high price.
+We buy and sell only when i &lt; i+1</t>
+  </si>
+  <si>
+    <t>1876. Substrings of Size Three with Distinct Characters</t>
+  </si>
+  <si>
+    <t>Compare the first element with 2nd element.
+2nd element with 3rd elemen.
+3rd element with 2nd element.</t>
+  </si>
+  <si>
+    <t>1763. Longest Nice Substring</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Divide and Concure technique.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Create a set.
+Check if the set contain both lower and upper case of that element.
+If not divide at that element at that point and check if  left and right side of that array contain the pair. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Recursively</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>643: Maximum Average Subarray I</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Keep Removing the start element from the window and keep adding the last element from the window.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+First window sum = [1,12,-5,-6,50,3]
+                    ^.       ^
+Second window sum = 
+[1,12,-5,-6,50,3]
+ i  ^.    ^  j
+step 1 : subtract i from previous window
+Step 2 : Add j from previous window</t>
+    </r>
+  </si>
+  <si>
+    <t>219: Contains Duplicate II</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Use Dictionary
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>If the number is there in dictionary and the abs difference of the present number and duplicate number is less than or equal to k return True.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1980,6 +2157,26 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="4"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF212121"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2043,7 +2240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2108,18 +2305,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2132,14 +2344,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2460,10 +2672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4A21D9-BFC5-D744-9210-5766C92121CA}">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75:B76"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2474,35 +2686,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="22" customFormat="1" ht="134" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
     </row>
     <row r="4" spans="1:3" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
     </row>
     <row r="5" spans="1:3" s="4" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -2747,28 +2959,28 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
     </row>
     <row r="29" spans="1:3" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
     </row>
     <row r="30" spans="1:3" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
     </row>
     <row r="31" spans="1:3" s="19" customFormat="1" ht="107" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
     </row>
     <row r="32" spans="1:3" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
@@ -2793,25 +3005,25 @@
       </c>
     </row>
     <row r="36" spans="1:3" s="21" customFormat="1" ht="143" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
     </row>
     <row r="37" spans="1:3" ht="160" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
     </row>
     <row r="38" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
     </row>
     <row r="39" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A39" s="19">
@@ -2825,18 +3037,18 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
     </row>
     <row r="43" spans="1:3" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
     </row>
     <row r="44" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A44" s="19">
@@ -2849,29 +3061,36 @@
         <v>49</v>
       </c>
     </row>
+    <row r="49" spans="1:3" s="38" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+    </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
     </row>
     <row r="52" spans="1:3" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
     </row>
     <row r="53" spans="1:3" s="23" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
     </row>
     <row r="54" spans="1:3" s="1" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
@@ -2961,29 +3180,36 @@
         <v>71</v>
       </c>
     </row>
+    <row r="64" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" s="37"/>
+      <c r="C64" s="37"/>
+    </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="32" t="s">
+      <c r="A65" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="25"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
+      <c r="A66" s="29"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
     </row>
     <row r="67" spans="1:3" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="25"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
+      <c r="A67" s="29"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
     </row>
     <row r="68" spans="1:3" ht="94" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="26" t="s">
+      <c r="A68" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
     </row>
     <row r="69" spans="1:3" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
@@ -3052,41 +3278,41 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="33">
+      <c r="A75" s="26">
         <v>6</v>
       </c>
-      <c r="B75" s="33" t="s">
+      <c r="B75" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C75" s="34" t="s">
+      <c r="C75" s="27" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="33"/>
-      <c r="B76" s="33"/>
-      <c r="C76" s="34"/>
+      <c r="A76" s="26"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="27"/>
     </row>
     <row r="77" spans="1:3" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="33">
+      <c r="A77" s="26">
         <v>7</v>
       </c>
-      <c r="B77" s="33" t="s">
+      <c r="B77" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="C77" s="34" t="s">
+      <c r="C77" s="27" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="149" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="33"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
+      <c r="A78" s="26"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
     </row>
     <row r="79" spans="1:3" ht="175" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="33"/>
-      <c r="B79" s="33"/>
-      <c r="C79" s="33"/>
+      <c r="A79" s="26"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="26"/>
     </row>
     <row r="80" spans="1:3" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
@@ -3110,16 +3336,120 @@
         <v>90</v>
       </c>
     </row>
+    <row r="86" spans="1:3" ht="62" x14ac:dyDescent="0.2">
+      <c r="A86" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" s="37"/>
+      <c r="C86" s="37"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="29"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+    </row>
+    <row r="89" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="29"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
+    </row>
+    <row r="90" spans="1:3" ht="95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" s="31"/>
+      <c r="C90" s="31"/>
+    </row>
+    <row r="91" spans="1:3" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="192" x14ac:dyDescent="0.2">
+      <c r="A92" s="19">
+        <v>1</v>
+      </c>
+      <c r="B92" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="63" x14ac:dyDescent="0.2">
+      <c r="A93" s="24">
+        <v>2</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93" s="25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="63" x14ac:dyDescent="0.2">
+      <c r="A94" s="24">
+        <v>3</v>
+      </c>
+      <c r="B94" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C94" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="126" x14ac:dyDescent="0.2">
+      <c r="A95" s="24">
+        <v>4</v>
+      </c>
+      <c r="B95" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C95" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="231" x14ac:dyDescent="0.2">
+      <c r="A96" s="24">
+        <v>5</v>
+      </c>
+      <c r="B96" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C96" s="25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="63" x14ac:dyDescent="0.2">
+      <c r="A97" s="24">
+        <v>6</v>
+      </c>
+      <c r="B97" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C97" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="A65:C67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
+  <mergeCells count="25">
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A87:C89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A86:C86"/>
     <mergeCell ref="A50:C52"/>
     <mergeCell ref="A53:C53"/>
     <mergeCell ref="A38:C38"/>
@@ -3132,6 +3462,15 @@
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A28:C30"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="A65:C67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Structure/DataStrucuture.xlsx
+++ b/Data Structure/DataStrucuture.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamrathod/Documents/Study Material/DS/DataStructure-And-Algorithm/Data Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB7E1D5-7F09-374C-9595-C4427DE0297D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D6BA99-4B06-2A4C-826D-8D29F83797C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16900" xr2:uid="{4E42177B-4881-CA45-8674-08098C02AC7A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4E42177B-4881-CA45-8674-08098C02AC7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Structure" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="133">
   <si>
     <t>Number</t>
   </si>
@@ -2055,6 +2055,774 @@
         <family val="1"/>
       </rPr>
       <t>If the number is there in dictionary and the abs difference of the present number and duplicate number is less than or equal to k return True.</t>
+    </r>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>Remove Duplicates From Linked List</t>
+  </si>
+  <si>
+    <t>Linked List Construction</t>
+  </si>
+  <si>
+    <t>Double Linked List Construction</t>
+  </si>
+  <si>
+    <t>19. Remove Nth Node From End of List</t>
+  </si>
+  <si>
+    <t>2. Add Two Numbers</t>
+  </si>
+  <si>
+    <t>206. Reverse Linked List</t>
+  </si>
+  <si>
+    <t>21. Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t>Compare the 2 linked list and append it to a new Linked List</t>
+  </si>
+  <si>
+    <t>61. Rotate List.</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>Zip Linked List</t>
+  </si>
+  <si>
+    <t>Rearrange LinkedList</t>
+  </si>
+  <si>
+    <t>1. Come Up with a Brute Force Approach
+2. Always check for base case.
+3. Mostly recursion is used.
+4. For every Rotation Problem. There will be. A offset ( After certain roatation the elements are back to original form.
+    Calculate Offest = abs(number of rotations) % length of element</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>NOTE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: Because the nodes are in sorted order I only have to look at next node to check if there are duplicates.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Check if the next node value is same as current node value.
+If they are same then point the next pointer to the next but 1 value and so on.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>NOTE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Will  always have a head pointer.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Create a node.
+Create a linked list with a head.
+Create nodes and join the nodes.
+1. Create.
+2. Insert
+    a. Front
+    b. After a node.
+    C. end
+3. Delete
+    a. Node
+    b. Position</t>
+    </r>
+  </si>
+  <si>
+    <t>Create a node.
+Create a linked list with a head and a tail.
+Create nodes and join the nodes.
+1. Create.
+2. Insert
+    a. set head
+    b. set Tail.
+    C. neginning of the node
+    d. after a node.
+    E. at a position
+3. Delete
+    a. Node
+    b. Position</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2 Pointer  --  creating window of size n+1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Create a 2 pointer. Distance between pointer 1 and pointer 2 should be n.
+Since index start with 0 distance should be n + 1
+move both the pointer as long as the right pointer next node is none. 
+Once none. Left pointers next node will be the node to remove. 
+Change the pointer.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t># If the nodes generate carry add it along with the nodes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Add the 2 nodes of the linked list
+Check if they generate carry. (sum &gt;= 10)
+If they generate carry. Add them along with the nodes.
+Repeate if there is nodes present in either of the LL or if there is a Carry. Once both the nodes are None. Return
+</t>
+    </r>
+  </si>
+  <si>
+    <t>141. Linked List Cycle
+Return true of there is a cycle. Else false.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t># Tortise Pointers and Sets</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Method 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Using Set.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Method 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+start the 2 pointer . Fast pointer runnig at double speed. 
+If they ever collide. Then there is a cycle.</t>
+    </r>
+  </si>
+  <si>
+    <t>Find Loop:
+Return the node where there is a loop starting.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t># Tortise Pointers + Math formula and Sets</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Method 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Using Set.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Method 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Use 2 pointer with a Math Formula.
+first pointer will cover distance of d + p when it interacts with second pointer
+f = d + p -- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>eq 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+second pointer is moving 2x faster than first pointer
+s = 2x(f) = 2 x (d+p) = 2d + 2p -- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>eq 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+total distance t = d + p + r  -- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>eq 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+which also means
+second pointer s cover a distance of s = t + p  -- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> eq 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>there fore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+t = s - p
+substituting eq 2
+t = 2d + 2p - p
+t = 2d + p -- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">eq 5
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Now appending eq 5 in eq 3
+eq 3 =&gt; t = d + p + r
+2d + p = d + p + r
+ie</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> d = r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3 Pointers Approach</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+prev = None. 
+# start with that because when I invert the LL, Last node should be pointing to None.
+Have 3 pointers . 
+1] Prev Node
+2] Cur Node
+3] Next Node.
+Keep changing the directions of cur Node</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Check where the Offset is. Then change the nodes there.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+# 1. calculate len of LL. --&gt; here Ill also get pointer to last node
+# 2. Check when the rotation occur --&gt; Calculate OffSet
+# 3. if offset is 0. no rotation takes place
+# When K is positive: 
+    Need to remove element from back ie -- ( length of LL - Offset )
+# when K is negative
+    Need to remove elements from front
+# 4. Traverse just before the position and change its pointer.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Approach 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Dictionary + Double Linked List.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Approach 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> OrderedDict.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ordered Dictionary = Hashmap + Linked List.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+There is a structure called </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ordered Dictionary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, it combines behind both </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>hashmap and linked list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. In Python this structure is called OrderedDict and in Java LinkedHashMap. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Steps: 
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Split</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the linkedList.
+	2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Reverse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the second half of LL.
+	3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Combine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the LinkedList</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Steps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: 
+         1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Create</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 3 linkedList. (Smaller than k, Equal to K, Larger than k).
+         2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Connect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the small LL to equal LL. And Connect the equal LL to Larger LL.</t>
     </r>
   </si>
 </sst>
@@ -2240,7 +3008,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2317,6 +3085,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2344,14 +3121,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2672,10 +3446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4A21D9-BFC5-D744-9210-5766C92121CA}">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2686,35 +3460,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="22" customFormat="1" ht="134" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
     </row>
     <row r="4" spans="1:3" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
     </row>
     <row r="5" spans="1:3" s="4" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -2959,28 +3733,28 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
     </row>
     <row r="29" spans="1:3" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
     </row>
     <row r="30" spans="1:3" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
     </row>
     <row r="31" spans="1:3" s="19" customFormat="1" ht="107" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
     </row>
     <row r="32" spans="1:3" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
@@ -3005,25 +3779,25 @@
       </c>
     </row>
     <row r="36" spans="1:3" s="21" customFormat="1" ht="143" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
     </row>
     <row r="37" spans="1:3" ht="160" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
     </row>
     <row r="38" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
     </row>
     <row r="39" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A39" s="19">
@@ -3037,18 +3811,18 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
     </row>
     <row r="43" spans="1:3" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
     </row>
     <row r="44" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A44" s="19">
@@ -3061,36 +3835,36 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="38" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="37" t="s">
+    <row r="49" spans="1:3" s="28" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
     </row>
     <row r="52" spans="1:3" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
     </row>
     <row r="53" spans="1:3" s="23" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
     </row>
     <row r="54" spans="1:3" s="1" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
@@ -3181,35 +3955,35 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="37" t="s">
+      <c r="A64" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="37"/>
-      <c r="C64" s="37"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="28" t="s">
+      <c r="A65" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="29"/>
-      <c r="C65" s="29"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="29"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
+      <c r="A66" s="32"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
     </row>
     <row r="67" spans="1:3" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="29"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
+      <c r="A67" s="32"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
     </row>
     <row r="68" spans="1:3" ht="94" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="30" t="s">
+      <c r="A68" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
     </row>
     <row r="69" spans="1:3" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
@@ -3278,41 +4052,41 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="26">
+      <c r="A75" s="40">
         <v>6</v>
       </c>
-      <c r="B75" s="26" t="s">
+      <c r="B75" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C75" s="27" t="s">
+      <c r="C75" s="41" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="26"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="27"/>
+      <c r="A76" s="40"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="41"/>
     </row>
     <row r="77" spans="1:3" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="26">
+      <c r="A77" s="40">
         <v>7</v>
       </c>
-      <c r="B77" s="26" t="s">
+      <c r="B77" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="41" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="149" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="26"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
+      <c r="A78" s="40"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="40"/>
     </row>
     <row r="79" spans="1:3" ht="175" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="26"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="26"/>
+      <c r="A79" s="40"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="40"/>
     </row>
     <row r="80" spans="1:3" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
@@ -3337,35 +4111,35 @@
       </c>
     </row>
     <row r="86" spans="1:3" ht="62" x14ac:dyDescent="0.2">
-      <c r="A86" s="37" t="s">
+      <c r="A86" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="B86" s="37"/>
-      <c r="C86" s="37"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="28" t="s">
+      <c r="A87" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B87" s="29"/>
-      <c r="C87" s="29"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="29"/>
-      <c r="B88" s="29"/>
-      <c r="C88" s="29"/>
+      <c r="A88" s="32"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="32"/>
     </row>
     <row r="89" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="29"/>
-      <c r="B89" s="29"/>
-      <c r="C89" s="29"/>
+      <c r="A89" s="32"/>
+      <c r="B89" s="32"/>
+      <c r="C89" s="32"/>
     </row>
     <row r="90" spans="1:3" ht="95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="30" t="s">
+      <c r="A90" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B90" s="31"/>
-      <c r="C90" s="31"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="34"/>
     </row>
     <row r="91" spans="1:3" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
@@ -3404,7 +4178,7 @@
       <c r="A94" s="24">
         <v>3</v>
       </c>
-      <c r="B94" s="39" t="s">
+      <c r="B94" s="29" t="s">
         <v>97</v>
       </c>
       <c r="C94" s="25" t="s">
@@ -3444,14 +4218,212 @@
         <v>104</v>
       </c>
     </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101" s="32"/>
+      <c r="C101" s="32"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="32"/>
+      <c r="B102" s="32"/>
+      <c r="C102" s="32"/>
+    </row>
+    <row r="103" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="32"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="32"/>
+    </row>
+    <row r="104" spans="1:3" ht="146" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B104" s="34"/>
+      <c r="C104" s="34"/>
+    </row>
+    <row r="105" spans="1:3" ht="25" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="26">
+        <v>1</v>
+      </c>
+      <c r="B106" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="294" x14ac:dyDescent="0.2">
+      <c r="A107" s="26">
+        <v>2</v>
+      </c>
+      <c r="B107" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107" s="27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="282" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="26">
+        <v>3</v>
+      </c>
+      <c r="B108" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108" s="41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="26"/>
+      <c r="B109" s="26"/>
+      <c r="C109" s="40"/>
+    </row>
+    <row r="110" spans="1:3" ht="224" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="26">
+        <v>4</v>
+      </c>
+      <c r="B110" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C110" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="210" x14ac:dyDescent="0.2">
+      <c r="A111" s="26">
+        <v>5</v>
+      </c>
+      <c r="B111" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C111" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="168" x14ac:dyDescent="0.2">
+      <c r="A112" s="26"/>
+      <c r="B112" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C112" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="272" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="26">
+        <v>6</v>
+      </c>
+      <c r="B113" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C113" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="235" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="26"/>
+      <c r="B114" s="26"/>
+      <c r="C114" s="41"/>
+    </row>
+    <row r="115" spans="1:3" ht="213" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="26"/>
+      <c r="B115" s="26"/>
+      <c r="C115" s="41"/>
+    </row>
+    <row r="116" spans="1:3" ht="231" x14ac:dyDescent="0.2">
+      <c r="A116" s="26">
+        <v>7</v>
+      </c>
+      <c r="B116" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C116" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="26">
+        <v>8</v>
+      </c>
+      <c r="B117" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C117" s="26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="231" x14ac:dyDescent="0.2">
+      <c r="A118" s="26">
+        <v>9</v>
+      </c>
+      <c r="B118" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C118" s="27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="174" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="26">
+        <v>10</v>
+      </c>
+      <c r="B119" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C119" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="122" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="26">
+        <v>11</v>
+      </c>
+      <c r="B120" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C120" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="63" x14ac:dyDescent="0.2">
+      <c r="A121" s="26">
+        <v>12</v>
+      </c>
+      <c r="B121" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C121" s="27" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A87:C89"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A50:C52"/>
-    <mergeCell ref="A53:C53"/>
+  <mergeCells count="29">
+    <mergeCell ref="A101:C103"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="A65:C67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A36:C36"/>
@@ -3462,15 +4434,12 @@
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A28:C30"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="A65:C67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A87:C89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A50:C52"/>
+    <mergeCell ref="A53:C53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
